--- a/data_mining/car_brands_and_models_links_Audi.xlsx
+++ b/data_mining/car_brands_and_models_links_Audi.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3ntf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnjrl&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3ny6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnm8l&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3o1o&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppno1u&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3o5n&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnq3k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3o8y&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnrz1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3oc9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppns2p&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3of4&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppns71&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3ojg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnsbl&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3onx&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnsg6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3osh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnslb&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3owe&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnspq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3oz4&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnstn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3p53&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnswz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3p8b&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt0l&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3pb3&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt4t&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3pfd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt9d&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3piy&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntcd&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3pnb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntg1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3pr6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntky&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3pux&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntqo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3py7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntvo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3q1l&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntzc&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3q4q&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnu3g&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3q86&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnu8u&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qca&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuci&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qgf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnufp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qlf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnujo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qom&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnunv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qsb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnurj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qvx&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuuz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3qzh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuyz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3r2x&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnv3k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3r6l&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnv6z&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3ra9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnva6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3rf5&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvdh&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3rjc&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvhd&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb3rnt&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvle&amp;f1=1</t>
         </is>
       </c>
     </row>

--- a/data_mining/car_brands_and_models_links_Audi.xlsx
+++ b/data_mining/car_brands_and_models_links_Audi.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnjrl&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p6hw&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnm8l&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p6kn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppno1u&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p6sf&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnq3k&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p6vf&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnrz1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p6yx&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppns2p&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p72v&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppns71&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p76x&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnsbl&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7as&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnsg6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7e8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnslb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7h5&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnspq&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7ju&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnstn&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7mg&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnswz&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7pd&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt0l&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7sj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt4t&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7vr&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnt9d&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p7yw&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntcd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p824&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntg1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p85n&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntky&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p89g&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntqo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8cb&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntvo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8fd&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppntzc&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8i6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnu3g&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8kq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnu8u&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8np&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuci&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8qe&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnufp&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8u7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnujo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p8xj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnunv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p91j&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnurj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p94z&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuuz&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p976&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnuyz&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p99u&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnv3k&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p9cd&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnv6z&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p9f2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnva6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p9hp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvdh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5p9ki&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvhd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5paig&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=ppnvle&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pam6&amp;f1=1</t>
         </is>
       </c>
     </row>
